--- a/model/compared_results/Glass1_result/Glass1_results.xlsx
+++ b/model/compared_results/Glass1_result/Glass1_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -791,6 +791,206 @@
         <v>0.7308</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>CatBoostClassifier</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.972</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5667</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.6655</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.9623</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.7536</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.863</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.7808</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>SMOTEBoostClassifier</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.958</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5333</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.9851</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.7927</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.719</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.9022</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.7513</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.8854</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.7592</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>OverBaggingClassifier</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.9673</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8270999999999999</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.757</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.9829</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.8983</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.9296</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.795</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>OverBoostClassifier</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.9673</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.5333</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.8214</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.7229</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.8334</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.7093</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.9520999999999999</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.7642</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>SMOTEBaggingClassifier</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.972</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8426</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.7596000000000001</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.9867</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.9067</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.9546</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.7975</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" t="n">
+        <v>0.9766</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.7333</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.8794999999999999</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.8416</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.8635</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.7344000000000001</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.9343</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.8617</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
